--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>97.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>82.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>42.87</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0566</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.06</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.73</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4426</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.66</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.06</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.73</v>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2003,699 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.43</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.66</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.06</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8994</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2657,14 +2744,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.27</v>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2673,14 +2782,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.73</v>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7792</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2689,13 +2820,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>240009</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝先进成长混合</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>134.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.08</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4875</t>
+          <t>3.6445</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -640,36 +694,606 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010335</t>
+          <t>013220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝竞争优势混合</t>
+          <t>中欧新兴价值一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>41.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>42.87</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2397</t>
+          <t>0.9561</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8994</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7792</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +1307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,7 +1328,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -734,36 +1358,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001583</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信新常态沪港深精选股票</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>156.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>6.0906</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -772,36 +1396,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>013220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>中欧新兴价值一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>63.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>2.0899</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -810,36 +1434,644 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001864</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海魅力长三角灵活配置混合</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>36.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.79</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>1.4196</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +2106,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -914,26 +2146,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>161.80</t>
+          <t>228.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.0383</t>
+          <t>9.7849</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -942,36 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>013220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧新兴价值一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>53.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4768</t>
+          <t>2.5430</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -980,36 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.29</t>
+          <t>57.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0566</t>
+          <t>2.4426</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1018,36 +2250,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60.20</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1545</t>
+          <t>1.3375</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1056,36 +2288,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>013221</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>中欧新兴价值一年持有混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>20.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1395</t>
+          <t>0.9767</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1094,36 +2326,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>27.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.7897</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1132,36 +2364,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.4068</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1170,36 +2402,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.2495</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1208,36 +2440,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1246,32 +2478,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.73</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0523</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1284,36 +2516,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +2580,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1388,26 +2620,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>228.62</t>
+          <t>161.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.7849</t>
+          <t>7.0383</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1416,36 +2648,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013220</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧新兴价值一年持有混合A</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.09</t>
+          <t>33.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5430</t>
+          <t>1.4768</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1454,36 +2686,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>57.07</t>
+          <t>24.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.4426</t>
+          <t>1.0566</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1492,36 +2724,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>60.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3375</t>
+          <t>0.1545</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1530,36 +2762,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013221</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧新兴价值一年持有混合C</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>84.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9767</t>
+          <t>0.1395</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1568,36 +2800,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.23</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>59.84</t>
+          <t>84.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7897</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1606,36 +2838,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>73.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4068</t>
+          <t>0.0411</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1644,36 +2876,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2495</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1682,36 +2914,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>98.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0551</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1720,32 +2952,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004945</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长信中证500指数增强</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>73.73</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0523</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1758,36 +2990,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1822,7 +3054,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1852,36 +3084,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>001583</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>安信新常态沪港深精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>156.17</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0906</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1890,36 +3122,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013220</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧新兴价值一年持有混合A</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.33</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0899</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1928,644 +3160,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>001864</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中海魅力长三角灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.40</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>75.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4196</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9804</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8100</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>41.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6998</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013221</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧新兴价值一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5528</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>23.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>59.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4753</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3608</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>16.63</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.75</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3393</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2361</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1753</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008851</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>74.55</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0818</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012878</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.35</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>012879</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +3203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2600,7 +3224,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2630,36 +3254,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>240009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>华宝先进成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>134.98</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>82.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6445</t>
+          <t>0.4875</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2668,606 +3292,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013220</t>
+          <t>010335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧新兴价值一年持有混合A</t>
+          <t>华宝竞争优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.39</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>42.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9561</t>
+          <t>0.2397</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8994</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>79.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7795</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7792</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>19.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>59.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5040</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4544</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013221</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧新兴价值一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>18.63</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4304</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515150</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1585</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515110</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>99.55</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1041</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>013332</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009336</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009337</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009919</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>上银核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009918</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上银核心成长混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3281,144 +3335,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.43</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>9.01</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>14.43</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>18.66</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>10.06</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2072,480 +2335,6 @@
       </c>
       <c r="H20" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>228.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.7849</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013220</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧新兴价值一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>53.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5430</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>57.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4426</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3375</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013221</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧新兴价值一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9767</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>27.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>59.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7897</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4068</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0523</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2369,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2620,26 +2409,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>161.80</t>
+          <t>228.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.0383</t>
+          <t>9.7849</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2648,36 +2437,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>013220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧新兴价值一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>53.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4768</t>
+          <t>2.5430</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2686,36 +2475,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.29</t>
+          <t>57.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0566</t>
+          <t>2.4426</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2724,36 +2513,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60.20</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1545</t>
+          <t>1.3375</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2762,36 +2551,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>013221</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>中欧新兴价值一年持有混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>20.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1395</t>
+          <t>0.9767</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2800,36 +2589,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>27.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.7897</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2838,36 +2627,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.4068</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2876,36 +2665,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.2495</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2914,36 +2703,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2952,32 +2741,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.73</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0523</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2990,36 +2779,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3028,6 +2817,480 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0566</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3197,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3329,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600970-中材国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>9.01</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>14.43</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>18.66</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>10.06</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +794,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>17.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5797</t>
+          <t>0.6551</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +832,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2919</t>
+          <t>0.3016</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +870,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.44</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1213</t>
+          <t>0.1858</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +908,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.20</t>
+          <t>98.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0724</t>
+          <t>0.0928</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -835,26 +946,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>98.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -863,6 +974,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1564,7 +1921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2335,480 +2692,6 @@
       </c>
       <c r="H20" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>228.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.7849</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013220</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧新兴价值一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>53.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5430</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>57.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4426</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3375</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013221</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧新兴价值一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9767</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>27.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>59.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7897</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4068</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0523</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2726,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2883,26 +2766,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>161.80</t>
+          <t>228.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.0383</t>
+          <t>9.7849</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2911,36 +2794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>013220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧新兴价值一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>53.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4768</t>
+          <t>2.5430</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2949,36 +2832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.29</t>
+          <t>57.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0566</t>
+          <t>2.4426</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2987,36 +2870,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60.20</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1545</t>
+          <t>1.3375</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3025,36 +2908,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>013221</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>中欧新兴价值一年持有混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>20.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1395</t>
+          <t>0.9767</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3063,36 +2946,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>27.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.7897</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3101,36 +2984,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.4068</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3139,36 +3022,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.2495</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3177,36 +3060,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -3215,32 +3098,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.73</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0523</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3253,36 +3136,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3291,6 +3174,480 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0566</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3460,7 +3817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3590,98 +3947,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>